--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/INDIANA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/INDIANA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1403"/>
+  <dimension ref="A1:D1397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C34">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C37">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C39">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C47">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C51">
@@ -1356,7 +1356,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C75">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C76">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C79">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C83">
@@ -1603,7 +1603,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C94">
@@ -1629,7 +1629,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C96">
@@ -1655,7 +1655,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Santiago el Pinar</t>
+          <t>Santiago El Pinar</t>
         </is>
       </c>
       <c r="C98">
@@ -2115,7 +2115,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C133">
@@ -2154,7 +2154,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C136">
@@ -2258,7 +2258,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C144">
@@ -2310,7 +2310,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C151">
@@ -2549,7 +2549,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C174">
@@ -2793,7 +2793,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C184">
@@ -2837,7 +2837,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C187">
@@ -3006,7 +3006,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C200">
@@ -3123,7 +3123,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C209">
@@ -3136,7 +3136,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C210">
@@ -3227,12 +3227,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C217">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C220">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C221">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C224">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C231">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C234">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C242">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C249">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C250">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C261">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C268">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C269">
@@ -3921,7 +3921,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C270">
@@ -4051,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C280">
@@ -4181,7 +4181,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C290">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C296">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C297">
@@ -4311,7 +4311,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C300">
@@ -4324,7 +4324,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C301">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C311">
@@ -4472,7 +4472,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C312">
@@ -4576,7 +4576,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C320">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C324">
@@ -4719,7 +4719,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C331">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C336">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C338">
@@ -4836,7 +4836,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C340">
@@ -4849,7 +4849,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C341">
@@ -4862,7 +4862,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C342">
@@ -4888,7 +4888,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C344">
@@ -4953,7 +4953,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C349">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C354">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C356">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C357">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C361">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C362">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C364">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C365">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C368">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C369">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C370">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C371">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C376">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C377">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C381">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C382">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C389">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C390">
@@ -5517,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C392">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C394">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C409">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C412">
@@ -5803,7 +5803,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C414">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C417">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C419">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C423">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C428">
@@ -6042,7 +6042,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C432">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C437">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C443">
@@ -6211,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C445">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C448">
@@ -6328,7 +6328,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C454">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C455">
@@ -6354,7 +6354,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C456">
@@ -6380,7 +6380,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C458">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C459">
@@ -6406,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C460">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C469">
@@ -6536,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C470">
@@ -6549,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C471">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C478">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C479">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C480">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C485">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C489">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C490">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C496">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C502">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C504">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C506">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C507">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C511">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C515">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C516">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C522">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C526">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C527">
@@ -7295,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C528">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C531">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C533">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C536">
@@ -7438,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C539">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C542">
@@ -7503,7 +7503,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C544">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C545">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C548">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C549">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C550">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C554">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C557">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C559">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C560">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -7976,7 +7976,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C580">
@@ -8002,7 +8002,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C582">
@@ -8782,7 +8782,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C642">
@@ -9060,7 +9060,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C663">
@@ -9229,7 +9229,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C676">
@@ -9307,7 +9307,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C682">
@@ -9385,7 +9385,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C688">
@@ -9481,7 +9481,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C695">
@@ -9668,7 +9668,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C709">
@@ -9720,7 +9720,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C713">
@@ -9764,7 +9764,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C716">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C722">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C723">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C724">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C728">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C729">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C731">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C733">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C734">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C735">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C736">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C738">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C743">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C744">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C746">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C747">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C750">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C758">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C767">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C769">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C779">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C814">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C837">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C838">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C839">
@@ -11935,7 +11935,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C883">
@@ -11987,7 +11987,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C887">
@@ -12000,7 +12000,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C888">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C889">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C890">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C891">
@@ -12052,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C892">
@@ -12065,7 +12065,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C893">
@@ -12078,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C894">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C897">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C898">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C899">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C900">
@@ -12169,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C901">
@@ -12182,7 +12182,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C902">
@@ -12195,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C903">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C905">
@@ -12447,7 +12447,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C922">
@@ -12473,7 +12473,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C924">
@@ -12590,7 +12590,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C933">
@@ -12720,7 +12720,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C943">
@@ -12902,7 +12902,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C957">
@@ -12954,7 +12954,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C961">
@@ -12967,7 +12967,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C962">
@@ -13006,7 +13006,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C965">
@@ -13084,7 +13084,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C971">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C976">
@@ -13240,7 +13240,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C983">
@@ -13383,7 +13383,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C994">
@@ -13396,7 +13396,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C995">
@@ -13448,7 +13448,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C999">
@@ -13552,7 +13552,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1007">
@@ -13565,7 +13565,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1008">
@@ -13656,7 +13656,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1015">
@@ -13669,7 +13669,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1016">
@@ -13682,7 +13682,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1017">
@@ -13747,7 +13747,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1022">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1049">
@@ -14116,7 +14116,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1050">
@@ -14181,7 +14181,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1055">
@@ -14194,7 +14194,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1056">
@@ -14220,7 +14220,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1058">
@@ -14246,7 +14246,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1060">
@@ -14373,7 +14373,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1069">
@@ -14464,7 +14464,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1076">
@@ -14542,7 +14542,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1082">
@@ -14620,7 +14620,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1088">
@@ -14659,7 +14659,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1091">
@@ -14685,7 +14685,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1093">
@@ -14763,7 +14763,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1099">
@@ -14802,7 +14802,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1102">
@@ -14815,7 +14815,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1103">
@@ -14828,7 +14828,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1104">
@@ -15176,7 +15176,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1130">
@@ -15376,7 +15376,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1145">
@@ -15667,7 +15667,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1167">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1174">
@@ -15880,7 +15880,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1183">
@@ -15906,7 +15906,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1185">
@@ -15945,7 +15945,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1188">
@@ -15958,7 +15958,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1189">
@@ -15997,7 +15997,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1192">
@@ -16153,7 +16153,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
@@ -16223,7 +16223,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1209">
@@ -16275,7 +16275,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1213">
@@ -16392,7 +16392,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1222">
@@ -16444,7 +16444,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1226">
@@ -16470,7 +16470,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1228">
@@ -16613,7 +16613,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1239">
@@ -16626,7 +16626,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1240">
@@ -16808,7 +16808,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1254">
@@ -16821,7 +16821,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1255">
@@ -16847,7 +16847,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1257">
@@ -16860,7 +16860,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1258">
@@ -16964,7 +16964,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1266">
@@ -17029,7 +17029,7 @@
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1271">
@@ -17068,7 +17068,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1274">
@@ -17133,7 +17133,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1279">
@@ -17159,7 +17159,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1281">
@@ -17276,7 +17276,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1290">
@@ -17315,7 +17315,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1293">
@@ -17367,7 +17367,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1297">
@@ -17484,7 +17484,7 @@
     <row r="1306">
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1306">
@@ -17497,7 +17497,7 @@
     <row r="1307">
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1307">
@@ -17562,7 +17562,7 @@
     <row r="1312">
       <c r="B1312" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1312">
@@ -17926,7 +17926,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1340">
@@ -18222,7 +18222,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1362">
@@ -18235,7 +18235,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1363">
@@ -18417,7 +18417,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1377">
@@ -18430,7 +18430,7 @@
     <row r="1378">
       <c r="B1378" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1378">
@@ -18443,7 +18443,7 @@
     <row r="1379">
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1379">
@@ -18547,7 +18547,7 @@
     <row r="1387">
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1387">
@@ -18560,7 +18560,7 @@
     <row r="1388">
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1388">
@@ -18625,7 +18625,7 @@
     <row r="1393">
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1393">
@@ -18677,7 +18677,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1397">
@@ -18685,41 +18685,6 @@
       </c>
       <c r="D1397">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1399">
-      <c r="A1399" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1401">
-      <c r="A1401" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
